--- a/data/trans_orig/P5710-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5710-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>306531</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>283317</v>
+        <v>284053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>329164</v>
+        <v>331883</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5247548831504012</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4850139520141972</v>
+        <v>0.4862753352074344</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5635001354530081</v>
+        <v>0.5681551212878284</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>506</v>
@@ -765,19 +765,19 @@
         <v>521447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>491357</v>
+        <v>491552</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>551096</v>
+        <v>554269</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5653564172165241</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.532732966286785</v>
+        <v>0.5329439570728139</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.597502499598314</v>
+        <v>0.6009419357051219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>802</v>
@@ -786,19 +786,19 @@
         <v>827978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>789416</v>
+        <v>784980</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>867545</v>
+        <v>864383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5496130132589756</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5240159213971127</v>
+        <v>0.5210707928179729</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5758778495288871</v>
+        <v>0.5737788412036668</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>143439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>124831</v>
+        <v>124599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>165136</v>
+        <v>164229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.245555503798334</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2136999121333631</v>
+        <v>0.213303308752585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2826984479560241</v>
+        <v>0.2811467606876579</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>173</v>
@@ -836,19 +836,19 @@
         <v>183275</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>158324</v>
+        <v>159835</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>208892</v>
+        <v>210338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1987084115069214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1716564407435344</v>
+        <v>0.1732942370597855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2264819369609125</v>
+        <v>0.2280499818793564</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -857,19 +857,19 @@
         <v>326714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>296440</v>
+        <v>295867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>359899</v>
+        <v>361873</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2168735551435912</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1967776279316804</v>
+        <v>0.1963972662762399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2389015675582111</v>
+        <v>0.2402119277659586</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>106471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>89057</v>
+        <v>89952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>125352</v>
+        <v>126706</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1822688558293669</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1524587488729142</v>
+        <v>0.153990921948028</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2145921621735835</v>
+        <v>0.2169101975533667</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>132</v>
@@ -907,19 +907,19 @@
         <v>138704</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>118409</v>
+        <v>116938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>162829</v>
+        <v>162301</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1503833495069584</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1283802883177598</v>
+        <v>0.1267850837264825</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1765407763132843</v>
+        <v>0.1759677919564169</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>236</v>
@@ -928,19 +928,19 @@
         <v>245174</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>215626</v>
+        <v>220317</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>274412</v>
+        <v>278062</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1627470795474814</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1431327559165775</v>
+        <v>0.1462468277099294</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1821549699875966</v>
+        <v>0.1845783412166093</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>22816</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14903</v>
+        <v>15232</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32401</v>
+        <v>33571</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03905918910451309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02551242837059021</v>
+        <v>0.02607603496717193</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05546860495217479</v>
+        <v>0.05747019897866987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -978,19 +978,19 @@
         <v>68019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52035</v>
+        <v>52584</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84723</v>
+        <v>86193</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07374621363409919</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05641713448905997</v>
+        <v>0.05701244037650456</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09185767128513696</v>
+        <v>0.09345109822807034</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -999,19 +999,19 @@
         <v>90835</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73551</v>
+        <v>72843</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110319</v>
+        <v>109330</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06029618392917935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04882359966816999</v>
+        <v>0.04835348088567996</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07322971031580602</v>
+        <v>0.072573286165735</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>4884</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1848</v>
+        <v>1861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10276</v>
+        <v>10138</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008361568117384789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003163576718246163</v>
+        <v>0.003185674711771386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01759226809696341</v>
+        <v>0.01735532253827803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1049,19 +1049,19 @@
         <v>10889</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5441</v>
+        <v>5499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19165</v>
+        <v>19251</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01180560813549696</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005898881731265034</v>
+        <v>0.005962165930590676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02077888677576502</v>
+        <v>0.02087228855248487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -1070,19 +1070,19 @@
         <v>15773</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9063</v>
+        <v>8751</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24309</v>
+        <v>24671</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01047016812077241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006016096533602583</v>
+        <v>0.005808935684184936</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01613615859261899</v>
+        <v>0.01637659860139933</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>670845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>637987</v>
+        <v>638212</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>703244</v>
+        <v>704376</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6229938191289779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5924795975797295</v>
+        <v>0.5926886009723648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6530812886080829</v>
+        <v>0.6541326338615178</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>586</v>
@@ -1195,19 +1195,19 @@
         <v>601301</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>570548</v>
+        <v>570111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>633197</v>
+        <v>635344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5685853661143699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5395060553225165</v>
+        <v>0.5390929657949358</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5987464485474148</v>
+        <v>0.6007769763291945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1242</v>
@@ -1216,19 +1216,19 @@
         <v>1272146</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1227612</v>
+        <v>1221801</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1316525</v>
+        <v>1315052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5960352258247809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5751696191448508</v>
+        <v>0.5724473811455346</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6168279837852929</v>
+        <v>0.6161379568053305</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>257010</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>230171</v>
+        <v>230130</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287410</v>
+        <v>287510</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.238677762089653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2137532113568616</v>
+        <v>0.2137150654112562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2669089350315323</v>
+        <v>0.2670016968749995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -1266,19 +1266,19 @@
         <v>259600</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>230498</v>
+        <v>233243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286259</v>
+        <v>287925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2454754267320176</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2179568007298759</v>
+        <v>0.2205527154603216</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2706841451801147</v>
+        <v>0.2722596924357492</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>506</v>
@@ -1287,19 +1287,19 @@
         <v>516610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>476734</v>
+        <v>478261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>559299</v>
+        <v>557665</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2420459055739499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2233627042629949</v>
+        <v>0.2240781512789166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2620467940102252</v>
+        <v>0.2612814701069542</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>117474</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97780</v>
+        <v>97512</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>138569</v>
+        <v>138377</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1090949859955275</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09080511954052893</v>
+        <v>0.09055682850685111</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1286844711340328</v>
+        <v>0.1285060965439294</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>141</v>
@@ -1337,19 +1337,19 @@
         <v>145657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123747</v>
+        <v>125535</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>166103</v>
+        <v>168905</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1377319783591495</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1170146192510211</v>
+        <v>0.1187052248081635</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1570659755586485</v>
+        <v>0.1597157431449404</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>258</v>
@@ -1358,19 +1358,19 @@
         <v>263131</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>232364</v>
+        <v>234301</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>292133</v>
+        <v>294900</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1232841971899536</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1088687337692314</v>
+        <v>0.109776199930733</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1368724003732651</v>
+        <v>0.1381685358945164</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>28800</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19265</v>
+        <v>18900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41627</v>
+        <v>42731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02674565091089815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01789102653975954</v>
+        <v>0.01755150668679319</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03865744092230264</v>
+        <v>0.03968334727737071</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1408,19 +1408,19 @@
         <v>45957</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33728</v>
+        <v>33922</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61534</v>
+        <v>61594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04345656976681288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0318930296908486</v>
+        <v>0.03207668710678369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05818633633754595</v>
+        <v>0.05824315701261477</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -1429,19 +1429,19 @@
         <v>74757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58235</v>
+        <v>58690</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94852</v>
+        <v>95538</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03502566697853177</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0272848960201036</v>
+        <v>0.02749787686608523</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0444406799633833</v>
+        <v>0.04476239836802166</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9744</v>
+        <v>9170</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002487781874943511</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009048713045556378</v>
+        <v>0.008515624458390974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1479,19 +1479,19 @@
         <v>5024</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1910</v>
+        <v>1486</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11060</v>
+        <v>10860</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004750659027650093</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001806542248019911</v>
+        <v>0.001404881999062037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01045842849802476</v>
+        <v>0.01026892207375628</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1500,19 +1500,19 @@
         <v>7703</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3579</v>
+        <v>3033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15988</v>
+        <v>14843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003609004432783877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001676646329762884</v>
+        <v>0.001421259461882427</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007490874602815095</v>
+        <v>0.006954179033851119</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>694241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>663282</v>
+        <v>658674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>727714</v>
+        <v>727405</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6189767215790593</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5913743647290303</v>
+        <v>0.5872659620045314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6488215401335273</v>
+        <v>0.648546024797456</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>516</v>
@@ -1625,19 +1625,19 @@
         <v>520706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>489207</v>
+        <v>490327</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>551800</v>
+        <v>555037</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5238806295115183</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4921896732557135</v>
+        <v>0.4933160248138317</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5551641245457788</v>
+        <v>0.5584211023551933</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1195</v>
@@ -1646,19 +1646,19 @@
         <v>1214947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1167817</v>
+        <v>1167638</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1255264</v>
+        <v>1260673</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5742978000847181</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5520200615237935</v>
+        <v>0.5519352062378502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5933557860948884</v>
+        <v>0.5959126028434267</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>286138</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>254542</v>
+        <v>258979</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>315014</v>
+        <v>318195</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2551174564761216</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.226946743292967</v>
+        <v>0.2309029374087033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2808630249124736</v>
+        <v>0.2836986877131795</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>315</v>
@@ -1696,19 +1696,19 @@
         <v>316528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>288806</v>
+        <v>286937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>349906</v>
+        <v>343895</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3184580925039285</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2905673253383426</v>
+        <v>0.2886860273472717</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3520394482418985</v>
+        <v>0.345992200798428</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>598</v>
@@ -1717,19 +1717,19 @@
         <v>602666</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>560804</v>
+        <v>559268</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>642927</v>
+        <v>641351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2848767372515929</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2650887917111905</v>
+        <v>0.2643625196005806</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3039076714491595</v>
+        <v>0.3031625753120399</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>114699</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96092</v>
+        <v>95218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>136478</v>
+        <v>135732</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1022646416633873</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08567458459114674</v>
+        <v>0.08489490949737324</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1216824056787367</v>
+        <v>0.1210173029653389</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>126</v>
@@ -1767,19 +1767,19 @@
         <v>130173</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>110025</v>
+        <v>108819</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>153364</v>
+        <v>153117</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1309665635106424</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1106957792625795</v>
+        <v>0.1094820234860509</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.154299459108799</v>
+        <v>0.154050062280254</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>241</v>
@@ -1788,19 +1788,19 @@
         <v>244872</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>216891</v>
+        <v>216613</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>275250</v>
+        <v>272745</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1157496428350383</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1025231625053257</v>
+        <v>0.1023917510489145</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1301091831365681</v>
+        <v>0.1289247697857224</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>23401</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14945</v>
+        <v>14917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34923</v>
+        <v>35233</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02086447237530407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01332509182428699</v>
+        <v>0.01330011782040277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03113679917995396</v>
+        <v>0.03141374695578251</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1838,19 +1838,19 @@
         <v>26533</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17302</v>
+        <v>17233</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37871</v>
+        <v>38277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02669471447391085</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01740741191313466</v>
+        <v>0.01733827126342569</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03810193416029124</v>
+        <v>0.038510754629489</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -1859,19 +1859,19 @@
         <v>49934</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36759</v>
+        <v>36773</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65793</v>
+        <v>66462</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02360369039523749</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01737581435188678</v>
+        <v>0.01738247480473226</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03110013123741415</v>
+        <v>0.03141640774828306</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>3114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002776707906127782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0008997037453985558</v>
+        <v>0.0008940443038969555</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00823826336863244</v>
+        <v>0.008318955703975801</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         <v>3114</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8405</v>
+        <v>8430</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001472129433413182</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0</v>
+        <v>0.0004744743994852971</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.00397297905686198</v>
+        <v>0.003984698542594945</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>249702</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>227410</v>
+        <v>228274</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>269991</v>
+        <v>270521</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5583669715880237</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5085191580704042</v>
+        <v>0.5104526085081718</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6037360804609121</v>
+        <v>0.6049223501470603</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>210</v>
@@ -2047,19 +2047,19 @@
         <v>208942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>189827</v>
+        <v>191652</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>225961</v>
+        <v>227172</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6124501766905134</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.556418387822093</v>
+        <v>0.5617677781202438</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6623366301539421</v>
+        <v>0.6658846088770493</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>455</v>
@@ -2068,19 +2068,19 @@
         <v>458644</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>428141</v>
+        <v>430927</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>484551</v>
+        <v>486556</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5817712255594535</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5430798343928573</v>
+        <v>0.546613301863504</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6146337333305724</v>
+        <v>0.6171763221168592</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>147257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>127638</v>
+        <v>128797</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166390</v>
+        <v>168453</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3292859786261618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2854167809567735</v>
+        <v>0.2880065077841567</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3720697006902856</v>
+        <v>0.3766841298297397</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>100</v>
@@ -2118,19 +2118,19 @@
         <v>100541</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>84550</v>
+        <v>85484</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>117913</v>
+        <v>117912</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2947049975266964</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2478327378656434</v>
+        <v>0.2505708285939032</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3456246596978859</v>
+        <v>0.3456234351526978</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>244</v>
@@ -2139,19 +2139,19 @@
         <v>247798</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>222042</v>
+        <v>221311</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>273629</v>
+        <v>275506</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3143212208478577</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2816511921881025</v>
+        <v>0.2807236964705667</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3470874592138059</v>
+        <v>0.349468439417759</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>39353</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27079</v>
+        <v>28833</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53680</v>
+        <v>53357</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08799836329102807</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06055135808666613</v>
+        <v>0.06447438800869157</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1200365774512726</v>
+        <v>0.1193139792682678</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -2189,19 +2189,19 @@
         <v>25452</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17096</v>
+        <v>17039</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36377</v>
+        <v>35883</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07460439641582772</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0501120024951405</v>
+        <v>0.04994457084586148</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1066284941180813</v>
+        <v>0.1051807080777523</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -2210,19 +2210,19 @@
         <v>64805</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>52112</v>
+        <v>50700</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84217</v>
+        <v>82199</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08220218679153884</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06610234499317191</v>
+        <v>0.06431040266931892</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1068258179845108</v>
+        <v>0.1042660913790526</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>10889</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5566</v>
+        <v>5426</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19328</v>
+        <v>19713</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02434868649478637</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01244604015223976</v>
+        <v>0.01213263922850087</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04322096651741104</v>
+        <v>0.04408199988722041</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2260,19 +2260,19 @@
         <v>4701</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1114</v>
+        <v>1125</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11971</v>
+        <v>12818</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01377933949068528</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00326590291423504</v>
+        <v>0.003296192605085024</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0350895063022257</v>
+        <v>0.03757124114614891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2281,19 +2281,19 @@
         <v>15590</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8688</v>
+        <v>8482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26622</v>
+        <v>26025</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0197748510290927</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01102014610491831</v>
+        <v>0.01075902502500421</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03376951297326303</v>
+        <v>0.03301208761977286</v>
       </c>
     </row>
     <row r="26">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7640</v>
+        <v>6122</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004461089876277297</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02239413860287016</v>
+        <v>0.01794540142991819</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9206</v>
+        <v>7605</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001930515772057334</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01167783764590787</v>
+        <v>0.009646098840581775</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>1921319</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1869510</v>
+        <v>1858260</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1977824</v>
+        <v>1976766</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.594882593548177</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.57884149034304</v>
+        <v>0.5753581559158942</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6123776047840374</v>
+        <v>0.6120502474101154</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1818</v>
@@ -2469,19 +2469,19 @@
         <v>1852396</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1792141</v>
+        <v>1795674</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1910181</v>
+        <v>1916927</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5587972966570849</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5406206578069526</v>
+        <v>0.5416866106972157</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5762289838073174</v>
+        <v>0.5782638262292403</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3694</v>
@@ -2490,19 +2490,19 @@
         <v>3773714</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3691560</v>
+        <v>3692846</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3855460</v>
+        <v>3853548</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5766049970958632</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5640522739027248</v>
+        <v>0.5642487523409286</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5890953983348012</v>
+        <v>0.5888031809036708</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>833845</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>781046</v>
+        <v>787666</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>881722</v>
+        <v>888204</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2581765784579627</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2418288461044908</v>
+        <v>0.2438785928102987</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.273000541712404</v>
+        <v>0.2750075297466621</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>841</v>
@@ -2540,19 +2540,19 @@
         <v>859944</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>808554</v>
+        <v>805240</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>912794</v>
+        <v>913614</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2594124117340901</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2439099933253195</v>
+        <v>0.242910301368286</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2753553043712949</v>
+        <v>0.2756024438020311</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1666</v>
@@ -2561,19 +2561,19 @@
         <v>1693788</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1619186</v>
+        <v>1623303</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1770433</v>
+        <v>1767954</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2588025414913713</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2474036262430017</v>
+        <v>0.2480326972412487</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2705134128747425</v>
+        <v>0.2701347508142147</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>377998</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>342864</v>
+        <v>345444</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>414324</v>
+        <v>418803</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1170363596680848</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1061582697883834</v>
+        <v>0.1069569196728994</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1282837637937914</v>
+        <v>0.129670568470602</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>423</v>
@@ -2611,19 +2611,19 @@
         <v>439985</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>398585</v>
+        <v>401047</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>482882</v>
+        <v>478007</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.132726766305526</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1202379938274932</v>
+        <v>0.1209806985960643</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1456669741361808</v>
+        <v>0.1441966032613807</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>796</v>
@@ -2632,19 +2632,19 @@
         <v>817983</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>768295</v>
+        <v>768675</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>876240</v>
+        <v>874210</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1249837217628845</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1173916498170525</v>
+        <v>0.1174497481013035</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1338851699848179</v>
+        <v>0.1335749769909176</v>
       </c>
     </row>
     <row r="31">
@@ -2661,19 +2661,19 @@
         <v>85906</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>69800</v>
+        <v>70091</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>105910</v>
+        <v>106421</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02659846559030769</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02161170155872432</v>
+        <v>0.0217018508023709</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03279199039694066</v>
+        <v>0.03295028081632966</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>136</v>
@@ -2682,19 +2682,19 @@
         <v>145209</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>122706</v>
+        <v>121829</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>171375</v>
+        <v>171854</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04380415691341163</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0370155878442683</v>
+        <v>0.03675102713289356</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05169718848913749</v>
+        <v>0.05184193658474998</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>219</v>
@@ -2703,19 +2703,19 @@
         <v>231116</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>202056</v>
+        <v>201143</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>263919</v>
+        <v>261412</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03531333590538057</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03087320627572315</v>
+        <v>0.03073361931655775</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04032558224149441</v>
+        <v>0.0399424526777938</v>
       </c>
     </row>
     <row r="32">
@@ -2732,19 +2732,19 @@
         <v>10678</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5620</v>
+        <v>5129</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>20379</v>
+        <v>18731</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003306002735467834</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001739971505310336</v>
+        <v>0.001588185690438242</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006309666897200618</v>
+        <v>0.005799535972040295</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -2753,19 +2753,19 @@
         <v>17435</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9869</v>
+        <v>10182</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27494</v>
+        <v>28031</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005259368389887301</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002977139509310181</v>
+        <v>0.003071556953655102</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008293813626636467</v>
+        <v>0.008455810943477858</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -2774,19 +2774,19 @@
         <v>28112</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>17846</v>
+        <v>19030</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>40314</v>
+        <v>40233</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004295403744500471</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00272673143391946</v>
+        <v>0.002907638134972718</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006159734378584236</v>
+        <v>0.006147471976057074</v>
       </c>
     </row>
     <row r="33">
@@ -3118,19 +3118,19 @@
         <v>582993</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>546403</v>
+        <v>549962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>615678</v>
+        <v>617542</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5611678695238606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5259472877606205</v>
+        <v>0.5293733855187813</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5926292861162147</v>
+        <v>0.5944226510966517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>534</v>
@@ -3139,19 +3139,19 @@
         <v>579825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>545813</v>
+        <v>546035</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>616031</v>
+        <v>616199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5187259191808979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4882975482555753</v>
+        <v>0.4884962229044557</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5511166482746664</v>
+        <v>0.5512670391101819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1080</v>
@@ -3160,19 +3160,19 @@
         <v>1162818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1112875</v>
+        <v>1114558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1208276</v>
+        <v>1208108</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5391706040964291</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5160132135877955</v>
+        <v>0.5167934183186034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5602479855977212</v>
+        <v>0.5601703709444447</v>
       </c>
     </row>
     <row r="5">
@@ -3189,19 +3189,19 @@
         <v>280458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>250704</v>
+        <v>250883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>311903</v>
+        <v>311229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2699588932722837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2413185150620708</v>
+        <v>0.2414902310089936</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.300226496378589</v>
+        <v>0.2995772829406028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>304</v>
@@ -3210,19 +3210,19 @@
         <v>329610</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298000</v>
+        <v>297022</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>362709</v>
+        <v>362016</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2948772870223227</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2665981762036231</v>
+        <v>0.2657233301100488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3244880646057776</v>
+        <v>0.3238685250774807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>569</v>
@@ -3231,19 +3231,19 @@
         <v>610068</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>568264</v>
+        <v>564970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>655698</v>
+        <v>653499</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2828738634118627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2634901494119098</v>
+        <v>0.2619628481105879</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3040311846572616</v>
+        <v>0.3030117863034975</v>
       </c>
     </row>
     <row r="6">
@@ -3260,19 +3260,19 @@
         <v>121364</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102324</v>
+        <v>102712</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>144581</v>
+        <v>144907</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1168204380598862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0984935653870871</v>
+        <v>0.09886704328017833</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1391681083100368</v>
+        <v>0.1394823726213508</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>136</v>
@@ -3281,19 +3281,19 @@
         <v>146509</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126202</v>
+        <v>126883</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>170599</v>
+        <v>175170</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1310701680203831</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1129033164259202</v>
+        <v>0.1135128224075649</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1526222503417846</v>
+        <v>0.1567115544435856</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>249</v>
@@ -3302,19 +3302,19 @@
         <v>267872</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>236446</v>
+        <v>237889</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>301432</v>
+        <v>300241</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1242059396609512</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1096340290642249</v>
+        <v>0.1103033814254148</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1397667748590432</v>
+        <v>0.1392143046937946</v>
       </c>
     </row>
     <row r="7">
@@ -3331,19 +3331,19 @@
         <v>43762</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31761</v>
+        <v>30581</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59898</v>
+        <v>59794</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04212413749310159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03057243543690985</v>
+        <v>0.02943660258097211</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05765536766706676</v>
+        <v>0.05755583942319421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -3352,19 +3352,19 @@
         <v>41485</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29087</v>
+        <v>28265</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56011</v>
+        <v>55919</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03711376203551318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02602221325655056</v>
+        <v>0.0252866499326572</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05010841997886824</v>
+        <v>0.05002639063432218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -3373,19 +3373,19 @@
         <v>85248</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66009</v>
+        <v>66813</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104899</v>
+        <v>105833</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03952730681164034</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03060676414605209</v>
+        <v>0.03097960026718207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0486390488433626</v>
+        <v>0.04907205551111255</v>
       </c>
     </row>
     <row r="8">
@@ -3402,19 +3402,19 @@
         <v>10315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5058</v>
+        <v>5132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18786</v>
+        <v>18085</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009928661650867887</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004868271224453212</v>
+        <v>0.004939701249235155</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01808235533622735</v>
+        <v>0.01740761555432994</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -3423,19 +3423,19 @@
         <v>20358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12410</v>
+        <v>12570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31782</v>
+        <v>32575</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0182128637408831</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01110187966215921</v>
+        <v>0.01124499707929875</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02843332261996216</v>
+        <v>0.02914208325777053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -3444,19 +3444,19 @@
         <v>30673</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21207</v>
+        <v>19235</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44221</v>
+        <v>44390</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01422228601911662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009833016181053101</v>
+        <v>0.008919001309639317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02050408133531546</v>
+        <v>0.02058265812815694</v>
       </c>
     </row>
     <row r="9">
@@ -3548,19 +3548,19 @@
         <v>590038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>557147</v>
+        <v>559977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>620300</v>
+        <v>623821</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6044911253442455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.570793732573044</v>
+        <v>0.573692975069899</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6354940138260778</v>
+        <v>0.639101283530599</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>571</v>
@@ -3569,19 +3569,19 @@
         <v>605937</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>569942</v>
+        <v>569931</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>637404</v>
+        <v>640452</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5542872488259813</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5213607970239128</v>
+        <v>0.5213507180003074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.583071843007741</v>
+        <v>0.5858606214813011</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1142</v>
@@ -3590,19 +3590,19 @@
         <v>1195975</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1149014</v>
+        <v>1144710</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1241663</v>
+        <v>1237749</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5779687758223744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5552740451991138</v>
+        <v>0.5531943901366169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6000478202962071</v>
+        <v>0.5981565549880284</v>
       </c>
     </row>
     <row r="11">
@@ -3619,19 +3619,19 @@
         <v>265805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240962</v>
+        <v>234101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298669</v>
+        <v>293137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2723155265949122</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2468644013780378</v>
+        <v>0.2398354672531206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3059845077113853</v>
+        <v>0.3003172128093716</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -3640,19 +3640,19 @@
         <v>325680</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295129</v>
+        <v>295898</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>360737</v>
+        <v>357620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.297919585865044</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2699727208447985</v>
+        <v>0.270675693948066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.329988360247708</v>
+        <v>0.3271368614603313</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>545</v>
@@ -3661,19 +3661,19 @@
         <v>591485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>553099</v>
+        <v>550953</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638315</v>
+        <v>642766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2858419683009445</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2672912352425873</v>
+        <v>0.2662544779977265</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.308472983245815</v>
+        <v>0.3106240953523674</v>
       </c>
     </row>
     <row r="12">
@@ -3690,19 +3690,19 @@
         <v>103002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82871</v>
+        <v>84526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>124723</v>
+        <v>126421</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1055250172399794</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08490039474620913</v>
+        <v>0.08659644873055115</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1277780945296243</v>
+        <v>0.1295179200269444</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>113</v>
@@ -3711,19 +3711,19 @@
         <v>126529</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>105992</v>
+        <v>105059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>148846</v>
+        <v>150621</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1157433288201442</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09695736399918242</v>
+        <v>0.09610358890820674</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1361586151350973</v>
+        <v>0.1377819754741927</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>206</v>
@@ -3732,19 +3732,19 @@
         <v>229531</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>198402</v>
+        <v>198200</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>260981</v>
+        <v>260014</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1109232782916717</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09588000241725479</v>
+        <v>0.09578232591675194</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.126121963530108</v>
+        <v>0.1256548343683649</v>
       </c>
     </row>
     <row r="13">
@@ -3761,19 +3761,19 @@
         <v>14463</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8124</v>
+        <v>8001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23103</v>
+        <v>23541</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01481679742640938</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008322968499984295</v>
+        <v>0.008196906074948624</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02366843002424013</v>
+        <v>0.02411745847378978</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -3782,19 +3782,19 @@
         <v>24927</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16772</v>
+        <v>15881</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36477</v>
+        <v>35827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02280256516847025</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01534227043255132</v>
+        <v>0.0145273138768788</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03336769508976787</v>
+        <v>0.03277281164149201</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -3803,19 +3803,19 @@
         <v>39390</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27779</v>
+        <v>28331</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52428</v>
+        <v>53665</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01903562150821846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01342448860928121</v>
+        <v>0.01369147443152614</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02533629178371235</v>
+        <v>0.02593426385465446</v>
       </c>
     </row>
     <row r="14">
@@ -3832,19 +3832,19 @@
         <v>2783</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7324</v>
+        <v>7289</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002851533394453396</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0008304378313848459</v>
+        <v>0.0008291293146231126</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007503063662177884</v>
+        <v>0.007467598587443902</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -3853,19 +3853,19 @@
         <v>10109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4279</v>
+        <v>5204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19082</v>
+        <v>18770</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009247271320360229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003914481703177136</v>
+        <v>0.004760705819825342</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01745556541225332</v>
+        <v>0.01716979121150955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -3874,19 +3874,19 @@
         <v>12892</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6719</v>
+        <v>6133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21848</v>
+        <v>20993</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006230356076791027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003246972721447351</v>
+        <v>0.002963952960364915</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01055806689273496</v>
+        <v>0.01014495126855601</v>
       </c>
     </row>
     <row r="15">
@@ -3978,19 +3978,19 @@
         <v>536004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>505097</v>
+        <v>504820</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>569525</v>
+        <v>563389</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6055752913800616</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5706568160456574</v>
+        <v>0.5703440109643519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6434473774665252</v>
+        <v>0.6365151677286058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>487</v>
@@ -3999,19 +3999,19 @@
         <v>519019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>488590</v>
+        <v>486459</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>544264</v>
+        <v>547051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5946805375240986</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5598152144375026</v>
+        <v>0.5573740177860084</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6236048114574252</v>
+        <v>0.6267990282298471</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>992</v>
@@ -4020,19 +4020,19 @@
         <v>1055023</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1015384</v>
+        <v>1008144</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1098698</v>
+        <v>1095072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6001661710506665</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.577617027634317</v>
+        <v>0.5734980110065862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6250114793042989</v>
+        <v>0.6229483385580734</v>
       </c>
     </row>
     <row r="17">
@@ -4049,19 +4049,19 @@
         <v>270025</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>238422</v>
+        <v>243597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296438</v>
+        <v>302127</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3050728670363088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2693678384570733</v>
+        <v>0.2752155088054211</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3349151283917968</v>
+        <v>0.3413426172886398</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>264</v>
@@ -4070,19 +4070,19 @@
         <v>280346</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>252562</v>
+        <v>254545</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>306542</v>
+        <v>308672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3212139680158911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2893793486337732</v>
+        <v>0.2916520483079736</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3512293453640276</v>
+        <v>0.3536698271724214</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>513</v>
@@ -4091,19 +4091,19 @@
         <v>550370</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>510697</v>
+        <v>510695</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>594130</v>
+        <v>593922</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.313086738538297</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2905181443635343</v>
+        <v>0.2905169370417527</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3379799634651651</v>
+        <v>0.3378614151291182</v>
       </c>
     </row>
     <row r="18">
@@ -4120,19 +4120,19 @@
         <v>67088</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52890</v>
+        <v>52477</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>85478</v>
+        <v>83666</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07579542865338745</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05975494584906062</v>
+        <v>0.05928866573994018</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09657280545716133</v>
+        <v>0.09452604421409874</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -4141,19 +4141,19 @@
         <v>64214</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50039</v>
+        <v>48419</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80577</v>
+        <v>80497</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07357467394958019</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05733344089069682</v>
+        <v>0.05547705454860118</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09232326250180464</v>
+        <v>0.09223192299228225</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>123</v>
@@ -4162,19 +4162,19 @@
         <v>131301</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>107586</v>
+        <v>110524</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>153638</v>
+        <v>158659</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07469284941444586</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06120187169865943</v>
+        <v>0.06287327423560271</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08739909919223265</v>
+        <v>0.09025553929308842</v>
       </c>
     </row>
     <row r="19">
@@ -4191,19 +4191,19 @@
         <v>11032</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5938</v>
+        <v>5683</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19714</v>
+        <v>19105</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01246406694676049</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006708702196579194</v>
+        <v>0.006421191875239417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02227336261246368</v>
+        <v>0.02158525940162677</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -4212,19 +4212,19 @@
         <v>6128</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2922</v>
+        <v>2941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13273</v>
+        <v>13179</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007021605275583691</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003347543204555741</v>
+        <v>0.003369949489845225</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01520783273670164</v>
+        <v>0.01510067761524063</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -4233,19 +4233,19 @@
         <v>17160</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10090</v>
+        <v>10196</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26508</v>
+        <v>27249</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009761947150689728</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005739676337166797</v>
+        <v>0.005799882147714804</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01507965815422838</v>
+        <v>0.01550095266715599</v>
       </c>
     </row>
     <row r="20">
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4823</v>
+        <v>5419</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001092345983481649</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005448738031681983</v>
+        <v>0.006122531354462168</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4283,19 +4283,19 @@
         <v>3063</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8470</v>
+        <v>8353</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003509215234846382</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001029685772838214</v>
+        <v>0.001021252309212221</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009704402539320698</v>
+        <v>0.009571199678864269</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -4307,16 +4307,16 @@
         <v>1080</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10181</v>
+        <v>9575</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002292293845900911</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.000614135944380681</v>
+        <v>0.0006142760157596238</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005791473009410895</v>
+        <v>0.005447155370258948</v>
       </c>
     </row>
     <row r="21">
@@ -4408,19 +4408,19 @@
         <v>328921</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>304657</v>
+        <v>307587</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>349548</v>
+        <v>351082</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6582128878568951</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6096556582918405</v>
+        <v>0.6155200500027247</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6994899296545329</v>
+        <v>0.7025585554321616</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>288</v>
@@ -4429,19 +4429,19 @@
         <v>316028</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>295674</v>
+        <v>294479</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>336058</v>
+        <v>335458</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7026743610676236</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6574173528195667</v>
+        <v>0.6547611722118942</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7472080967814488</v>
+        <v>0.7458749051423007</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>589</v>
@@ -4450,19 +4450,19 @@
         <v>644950</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>613418</v>
+        <v>614004</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>672909</v>
+        <v>673350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6792736700583079</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6460640015591684</v>
+        <v>0.6466806712149046</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7087202158317442</v>
+        <v>0.7091846671588773</v>
       </c>
     </row>
     <row r="23">
@@ -4479,19 +4479,19 @@
         <v>115555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97689</v>
+        <v>95878</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>137610</v>
+        <v>136057</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2312397475500159</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1954887072106878</v>
+        <v>0.191863056107771</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2753750693994061</v>
+        <v>0.2722676503466387</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>89</v>
@@ -4500,19 +4500,19 @@
         <v>98061</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>79968</v>
+        <v>81303</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>116398</v>
+        <v>117474</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2180347492379094</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1778049313615065</v>
+        <v>0.1807725024454574</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2588050238105492</v>
+        <v>0.2611969563969766</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>193</v>
@@ -4521,19 +4521,19 @@
         <v>213616</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>189824</v>
+        <v>188445</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>242798</v>
+        <v>243202</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2249847232933255</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1999262840245163</v>
+        <v>0.1984740870161522</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2557195258536776</v>
+        <v>0.2561453643394522</v>
       </c>
     </row>
     <row r="24">
@@ -4550,19 +4550,19 @@
         <v>44245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31672</v>
+        <v>32411</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59010</v>
+        <v>59777</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08853953096207662</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0633788761911557</v>
+        <v>0.06485932931471268</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1180861444391772</v>
+        <v>0.1196214522992879</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -4571,19 +4571,19 @@
         <v>30422</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20229</v>
+        <v>20801</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42517</v>
+        <v>43512</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06764226962796623</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04497859165503735</v>
+        <v>0.04625101135420091</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09453519443395696</v>
+        <v>0.09674672670419689</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>70</v>
@@ -4592,19 +4592,19 @@
         <v>74667</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>59008</v>
+        <v>58470</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>94188</v>
+        <v>91162</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07864078857273304</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0621488639712054</v>
+        <v>0.0615813189942414</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09920036179158016</v>
+        <v>0.09601340949565393</v>
       </c>
     </row>
     <row r="25">
@@ -4621,19 +4621,19 @@
         <v>9098</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3944</v>
+        <v>4013</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17558</v>
+        <v>17940</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01820588815572714</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007892320466863837</v>
+        <v>0.008031471411472349</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03513546556444216</v>
+        <v>0.03590018465009929</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4642,19 +4642,19 @@
         <v>3311</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10400</v>
+        <v>9561</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007362002428520751</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002168467600279073</v>
+        <v>0.002175511113035783</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02312488167570284</v>
+        <v>0.02125917798105896</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -4663,19 +4663,19 @@
         <v>12409</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5898</v>
+        <v>6592</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21254</v>
+        <v>21708</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01306929012994257</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006211975605224182</v>
+        <v>0.006942520985580693</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02238563350633246</v>
+        <v>0.02286372471078675</v>
       </c>
     </row>
     <row r="26">
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6743</v>
+        <v>6792</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003801945475285176</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01349289909973575</v>
+        <v>0.01359253846027491</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6669</v>
+        <v>6784</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004286617637980082</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01482844963895036</v>
+        <v>0.01508340355962356</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -4734,19 +4734,19 @@
         <v>3828</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>969</v>
+        <v>982</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9663</v>
+        <v>8750</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004031527945691083</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001020140427888391</v>
+        <v>0.001034719873137401</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01017700631069704</v>
+        <v>0.009215326358581011</v>
       </c>
     </row>
     <row r="27">
@@ -4838,19 +4838,19 @@
         <v>2037957</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1977348</v>
+        <v>1976675</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2096946</v>
+        <v>2100019</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.599431205829058</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5816041347073053</v>
+        <v>0.5814059870325755</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6167818467868339</v>
+        <v>0.6176858528614635</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1880</v>
@@ -4859,19 +4859,19 @@
         <v>2020809</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1959993</v>
+        <v>1957031</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2077664</v>
+        <v>2077482</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5719019248285462</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5546906691270193</v>
+        <v>0.5538522290799786</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.587992258631478</v>
+        <v>0.587940758546815</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3803</v>
@@ -4880,19 +4880,19 @@
         <v>4058766</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3977012</v>
+        <v>3971752</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4140552</v>
+        <v>4146070</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5854011886533287</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5736097078869111</v>
+        <v>0.5728509629177447</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5971973034032066</v>
+        <v>0.5979931437254125</v>
       </c>
     </row>
     <row r="29">
@@ -4909,19 +4909,19 @@
         <v>931843</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>879801</v>
+        <v>871018</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>991791</v>
+        <v>982532</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.274086023804253</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2587788483886057</v>
+        <v>0.2561955219830293</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2917188214866249</v>
+        <v>0.2889954630880494</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>960</v>
@@ -4930,19 +4930,19 @@
         <v>1033697</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>981925</v>
+        <v>980675</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1088032</v>
+        <v>1089892</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2925429508489475</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2778911858788218</v>
+        <v>0.2775372739090146</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3079200667342248</v>
+        <v>0.3084464337990614</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1820</v>
@@ -4951,19 +4951,19 @@
         <v>1965540</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1892422</v>
+        <v>1888643</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2044535</v>
+        <v>2045519</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2834924083532513</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2729464746914351</v>
+        <v>0.2724014735122463</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2948859114657212</v>
+        <v>0.2950278772176971</v>
       </c>
     </row>
     <row r="30">
@@ -4980,19 +4980,19 @@
         <v>335699</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>299358</v>
+        <v>303090</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>371399</v>
+        <v>373131</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09874013849021455</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08805104301351518</v>
+        <v>0.08914879261044778</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1092408175340669</v>
+        <v>0.10975023352526</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>335</v>
@@ -5001,19 +5001,19 @@
         <v>367673</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>332543</v>
+        <v>332668</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>409163</v>
+        <v>411146</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1040537871679909</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09411179725446869</v>
+        <v>0.09414729636811013</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1157958562362978</v>
+        <v>0.1163570170950547</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>648</v>
@@ -5022,19 +5022,19 @@
         <v>703371</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>648981</v>
+        <v>652085</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>758705</v>
+        <v>759581</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1014481853227347</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0936034334462333</v>
+        <v>0.09405102666757335</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1094290579687965</v>
+        <v>0.1095553747563659</v>
       </c>
     </row>
     <row r="31">
@@ -5051,19 +5051,19 @@
         <v>78355</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>61008</v>
+        <v>63946</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>97464</v>
+        <v>98059</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02304681339429664</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01794459746571935</v>
+        <v>0.0188087143092349</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02866747135739548</v>
+        <v>0.02884235537485318</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>69</v>
@@ -5072,19 +5072,19 @@
         <v>75852</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>59119</v>
+        <v>58918</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>94359</v>
+        <v>95809</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0214665828216313</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01673114340295175</v>
+        <v>0.01667418878225412</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02670423178547741</v>
+        <v>0.02711469726711619</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>141</v>
@@ -5093,19 +5093,19 @@
         <v>154207</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>129652</v>
+        <v>130838</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>183314</v>
+        <v>180603</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02224146500631313</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01869988213531094</v>
+        <v>0.01887097353822401</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02643961858973561</v>
+        <v>0.02604855307388335</v>
       </c>
     </row>
     <row r="32">
@@ -5122,19 +5122,19 @@
         <v>15965</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9404</v>
+        <v>9748</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25848</v>
+        <v>26253</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004695818482177933</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002765909063855183</v>
+        <v>0.002867093439306585</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007602836368373128</v>
+        <v>0.007722023594732024</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -5143,19 +5143,19 @@
         <v>35458</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24136</v>
+        <v>23822</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50623</v>
+        <v>49237</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01003475433288407</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006830640879989545</v>
+        <v>0.006741654310137767</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01432664146734163</v>
+        <v>0.01393440718985052</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>48</v>
@@ -5164,19 +5164,19 @@
         <v>51423</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37948</v>
+        <v>37488</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68785</v>
+        <v>68297</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007416752664372213</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005473319753437548</v>
+        <v>0.005406874803498125</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009920906474050528</v>
+        <v>0.009850601095884292</v>
       </c>
     </row>
     <row r="33">
@@ -5508,19 +5508,19 @@
         <v>477973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>443911</v>
+        <v>443921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>510988</v>
+        <v>511641</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.424129004359879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3939043519006483</v>
+        <v>0.3939135248407429</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4534254436472929</v>
+        <v>0.4540050904365445</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>558</v>
@@ -5529,19 +5529,19 @@
         <v>584064</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>546685</v>
+        <v>547584</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>619268</v>
+        <v>620785</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4644322706857508</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4347099481324196</v>
+        <v>0.4354248205222868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4924261478618138</v>
+        <v>0.493632250044471</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1009</v>
@@ -5550,19 +5550,19 @@
         <v>1062036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1010873</v>
+        <v>1008376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1108970</v>
+        <v>1108698</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.445384632357438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4239285231397186</v>
+        <v>0.4228811539859277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4650673889278359</v>
+        <v>0.464953168396203</v>
       </c>
     </row>
     <row r="5">
@@ -5579,19 +5579,19 @@
         <v>412012</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>379922</v>
+        <v>380993</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449665</v>
+        <v>447976</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3655992681868709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3371234693035234</v>
+        <v>0.3380741516908738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3990099194426192</v>
+        <v>0.3975112382757257</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>415</v>
@@ -5600,19 +5600,19 @@
         <v>441335</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>410048</v>
+        <v>405256</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>478954</v>
+        <v>477804</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.350938100906821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3260594396570824</v>
+        <v>0.3222493300770039</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3808515355686005</v>
+        <v>0.379937735339706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>807</v>
@@ -5621,19 +5621,19 @@
         <v>853347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>806301</v>
+        <v>803952</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>899176</v>
+        <v>900441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3578670830286005</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.338137495436897</v>
+        <v>0.3371521140722714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.377086045875911</v>
+        <v>0.3776166339737428</v>
       </c>
     </row>
     <row r="6">
@@ -5650,19 +5650,19 @@
         <v>179438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>154865</v>
+        <v>156338</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>203902</v>
+        <v>204159</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1592246073342644</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1374191689166182</v>
+        <v>0.138726221618351</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1809325949746702</v>
+        <v>0.1811604622299566</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>171</v>
@@ -5671,19 +5671,19 @@
         <v>183854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>158721</v>
+        <v>159017</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>212845</v>
+        <v>212745</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1461960396860348</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1262111820182546</v>
+        <v>0.1264462458915915</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1692487824737341</v>
+        <v>0.1691693690582984</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>340</v>
@@ -5692,19 +5692,19 @@
         <v>363292</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>327218</v>
+        <v>328308</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>399380</v>
+        <v>402702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1523534424754989</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1372248939132406</v>
+        <v>0.1376818662619858</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1674875082457226</v>
+        <v>0.1688803885145957</v>
       </c>
     </row>
     <row r="7">
@@ -5721,19 +5721,19 @@
         <v>43662</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31288</v>
+        <v>29946</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58938</v>
+        <v>57551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03874364102876692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02776310896819695</v>
+        <v>0.02657273163322412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05229840657683884</v>
+        <v>0.05106787670319562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -5742,19 +5742,19 @@
         <v>34100</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23451</v>
+        <v>22364</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48419</v>
+        <v>48352</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02711524602532986</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01864784397034934</v>
+        <v>0.01778327612306413</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03850163162875215</v>
+        <v>0.03844847985292486</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -5763,19 +5763,19 @@
         <v>77762</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61024</v>
+        <v>61385</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100219</v>
+        <v>98439</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03261091629119231</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02559147230026914</v>
+        <v>0.0257429053157896</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04202865660308215</v>
+        <v>0.0412824042161044</v>
       </c>
     </row>
     <row r="8">
@@ -5792,19 +5792,19 @@
         <v>13865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7382</v>
+        <v>7295</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22524</v>
+        <v>22896</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01230347909021874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006550238695477753</v>
+        <v>0.006473245862213565</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01998688820741833</v>
+        <v>0.02031678608795146</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -5813,19 +5813,19 @@
         <v>14234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7771</v>
+        <v>7786</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24108</v>
+        <v>24350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01131834269606351</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00617934544917824</v>
+        <v>0.006191556441226237</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0191696859384382</v>
+        <v>0.01936241553446678</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -5834,19 +5834,19 @@
         <v>28099</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17899</v>
+        <v>18323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41065</v>
+        <v>41840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01178392584727033</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00750615300644234</v>
+        <v>0.007684011238027395</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0172215682544751</v>
+        <v>0.01754624921693497</v>
       </c>
     </row>
     <row r="9">
@@ -5938,19 +5938,19 @@
         <v>436945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>404267</v>
+        <v>406790</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>466441</v>
+        <v>469241</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4815197573048557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4455090043030833</v>
+        <v>0.4482890536104392</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5140250068312202</v>
+        <v>0.5171113063357302</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>480</v>
@@ -5959,19 +5959,19 @@
         <v>504335</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>470955</v>
+        <v>473891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>537536</v>
+        <v>534384</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5024957234678042</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4692377904200516</v>
+        <v>0.472163372884381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5355754299835965</v>
+        <v>0.5324355653383416</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>906</v>
@@ -5980,19 +5980,19 @@
         <v>941279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>900563</v>
+        <v>894020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>986986</v>
+        <v>984533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4925358580884084</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4712302723447439</v>
+        <v>0.4678070399994341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5164524555748452</v>
+        <v>0.5151688182453659</v>
       </c>
     </row>
     <row r="11">
@@ -6009,19 +6009,19 @@
         <v>328320</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>298407</v>
+        <v>296632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>357746</v>
+        <v>356086</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3618142747337361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3288495663884063</v>
+        <v>0.3268933617817353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3942412565513272</v>
+        <v>0.3924121755810354</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>330</v>
@@ -6030,19 +6030,19 @@
         <v>350024</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318820</v>
+        <v>321123</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>384508</v>
+        <v>379338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3487480620834084</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3176574988196017</v>
+        <v>0.3199517327591063</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3831056058098353</v>
+        <v>0.3779543950402003</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -6051,19 +6051,19 @@
         <v>678345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>637395</v>
+        <v>639333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>722463</v>
+        <v>722679</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3549521967585346</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3335246297075532</v>
+        <v>0.3345386199791167</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3780375194140546</v>
+        <v>0.3781505967829351</v>
       </c>
     </row>
     <row r="12">
@@ -6080,19 +6080,19 @@
         <v>126290</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>106384</v>
+        <v>105853</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>150380</v>
+        <v>148285</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1391737035793501</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1172368247202398</v>
+        <v>0.1166517301297391</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1657211018619822</v>
+        <v>0.1634122393605321</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>116</v>
@@ -6101,19 +6101,19 @@
         <v>123828</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>102845</v>
+        <v>102675</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>145877</v>
+        <v>147482</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.123376936025989</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1024701706943719</v>
+        <v>0.1023007938186203</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1453453079971075</v>
+        <v>0.1469443414414681</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>238</v>
@@ -6122,19 +6122,19 @@
         <v>250119</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>223885</v>
+        <v>220475</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>284887</v>
+        <v>278703</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1308776002165613</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.117150344662252</v>
+        <v>0.1153661366285484</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1490707785343543</v>
+        <v>0.1458346805413164</v>
       </c>
     </row>
     <row r="13">
@@ -6151,19 +6151,19 @@
         <v>14596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8207</v>
+        <v>8004</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23883</v>
+        <v>24043</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01608458353967428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009044347559661338</v>
+        <v>0.008820997598348508</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0263190902701234</v>
+        <v>0.02649588164785652</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -6172,19 +6172,19 @@
         <v>20074</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12093</v>
+        <v>12575</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30826</v>
+        <v>31141</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02000035197596645</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01204841888298445</v>
+        <v>0.01252867763867605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03071405011686248</v>
+        <v>0.03102786594624872</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -6193,19 +6193,19 @@
         <v>34669</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24455</v>
+        <v>23711</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49180</v>
+        <v>48915</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01814105614285021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01279643874037741</v>
+        <v>0.01240693470904628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02573411810319995</v>
+        <v>0.02559542879972901</v>
       </c>
     </row>
     <row r="14">
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8125</v>
+        <v>6422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001407680842383843</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008953337811699796</v>
+        <v>0.007077461261719229</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -6243,19 +6243,19 @@
         <v>5399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1160</v>
+        <v>2007</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11846</v>
+        <v>12005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005378926446831841</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001155274925148849</v>
+        <v>0.001999784609782493</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01180290534379104</v>
+        <v>0.01196169055176757</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -6264,19 +6264,19 @@
         <v>6676</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3129</v>
+        <v>2253</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15008</v>
+        <v>14038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003493288793645446</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00163752112212826</v>
+        <v>0.001179150268501422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007853003096907693</v>
+        <v>0.00734544467128475</v>
       </c>
     </row>
     <row r="15">
@@ -6368,19 +6368,19 @@
         <v>416639</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>388361</v>
+        <v>387900</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>446632</v>
+        <v>446948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5069612545795213</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4725531212818518</v>
+        <v>0.4719919976817878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5434567683767059</v>
+        <v>0.5438405650437707</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>355</v>
@@ -6389,19 +6389,19 @@
         <v>367779</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>340923</v>
+        <v>335684</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>395991</v>
+        <v>393369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4769795250979224</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4421487599891742</v>
+        <v>0.4353547865819187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5135670907229276</v>
+        <v>0.5101675220597275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>754</v>
@@ -6410,19 +6410,19 @@
         <v>784418</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>746540</v>
+        <v>746054</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>827254</v>
+        <v>825095</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4924482564054312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4686684792993317</v>
+        <v>0.4683635683842141</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5193396498615765</v>
+        <v>0.5179847984202006</v>
       </c>
     </row>
     <row r="17">
@@ -6439,19 +6439,19 @@
         <v>308211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>277641</v>
+        <v>279944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334408</v>
+        <v>336035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3750273007508674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3378299832496679</v>
+        <v>0.3406328082593233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4069041605351569</v>
+        <v>0.408883574109535</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>288</v>
@@ -6460,19 +6460,19 @@
         <v>306811</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>279231</v>
+        <v>280921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>334629</v>
+        <v>336683</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3979089050176121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3621396101089769</v>
+        <v>0.364331120445935</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4339865411342653</v>
+        <v>0.4366505963316867</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>581</v>
@@ -6481,19 +6481,19 @@
         <v>615022</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>571128</v>
+        <v>578989</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>654887</v>
+        <v>655483</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3861034023195689</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3585474004771265</v>
+        <v>0.3634821955742804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4111298250596038</v>
+        <v>0.4115042197964269</v>
       </c>
     </row>
     <row r="18">
@@ -6510,19 +6510,19 @@
         <v>82372</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>67706</v>
+        <v>65581</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>103740</v>
+        <v>101060</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1002289817812921</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08238431632479395</v>
+        <v>0.07979797643641749</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1262298171859497</v>
+        <v>0.1229688688118362</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -6531,19 +6531,19 @@
         <v>85174</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69656</v>
+        <v>67550</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>105725</v>
+        <v>105081</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1104634467225855</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09033843839904153</v>
+        <v>0.08760695644978697</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1371172631555889</v>
+        <v>0.1362816214497813</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>152</v>
@@ -6552,19 +6552,19 @@
         <v>167546</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>142146</v>
+        <v>145772</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>193715</v>
+        <v>195401</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1051830912864473</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08923769131295985</v>
+        <v>0.0915137299727735</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1216118059153681</v>
+        <v>0.1226704727309147</v>
       </c>
     </row>
     <row r="19">
@@ -6581,19 +6581,19 @@
         <v>14614</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8093</v>
+        <v>8914</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23705</v>
+        <v>25258</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01778246288831907</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009847547425316988</v>
+        <v>0.01084594908720961</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02884375184111309</v>
+        <v>0.03073339086185266</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -6602,19 +6602,19 @@
         <v>9297</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4297</v>
+        <v>4152</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17494</v>
+        <v>16991</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01205782831665734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00557338645604288</v>
+        <v>0.005384767648064543</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02268851052906734</v>
+        <v>0.02203610404966472</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -6623,19 +6623,19 @@
         <v>23912</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15969</v>
+        <v>15139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36362</v>
+        <v>35837</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01501138821976631</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01002532696196068</v>
+        <v>0.009503788570856524</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02282739760540877</v>
+        <v>0.0224980039995851</v>
       </c>
     </row>
     <row r="20">
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6828</v>
+        <v>6991</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002590294845222595</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008855198793884394</v>
+        <v>0.009067150315892503</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6567</v>
+        <v>6782</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001253861768786324</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.00412241786340605</v>
+        <v>0.004257776107800721</v>
       </c>
     </row>
     <row r="21">
@@ -6790,19 +6790,19 @@
         <v>309695</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>288763</v>
+        <v>287659</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>333120</v>
+        <v>332117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6111990076097731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5698882071037772</v>
+        <v>0.5677100992747566</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6574296794929397</v>
+        <v>0.6554488693179705</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>284</v>
@@ -6811,19 +6811,19 @@
         <v>305648</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>283690</v>
+        <v>284717</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>326936</v>
+        <v>328063</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.626531690872689</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5815210017658108</v>
+        <v>0.5836246160367122</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6701675247049007</v>
+        <v>0.672477836476321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>573</v>
@@ -6832,19 +6832,19 @@
         <v>615344</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>582705</v>
+        <v>584675</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>645346</v>
+        <v>648906</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6187199805286928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5859017744319138</v>
+        <v>0.5878833860541023</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6488873533267701</v>
+        <v>0.6524662304234964</v>
       </c>
     </row>
     <row r="23">
@@ -6861,19 +6861,19 @@
         <v>145759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>124413</v>
+        <v>123067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166538</v>
+        <v>168514</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2876618662588538</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2455344504446822</v>
+        <v>0.2428789511298325</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3286707192636295</v>
+        <v>0.3325709759746092</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>118</v>
@@ -6882,19 +6882,19 @@
         <v>127197</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>108473</v>
+        <v>108529</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>147136</v>
+        <v>148449</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2607341559151201</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2223532538016235</v>
+        <v>0.2224681406676098</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3016067072762068</v>
+        <v>0.304296529260475</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>253</v>
@@ -6903,19 +6903,19 @@
         <v>272956</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>244894</v>
+        <v>244584</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>300138</v>
+        <v>303069</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2744533119053204</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2462377640275977</v>
+        <v>0.2459260049490714</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3017848395501233</v>
+        <v>0.3047321452751834</v>
       </c>
     </row>
     <row r="24">
@@ -6932,19 +6932,19 @@
         <v>44242</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31613</v>
+        <v>31955</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56756</v>
+        <v>58830</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0873141455790131</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0623904912649303</v>
+        <v>0.06306445211663761</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1120104221809789</v>
+        <v>0.1161034099799706</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -6953,19 +6953,19 @@
         <v>44693</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31862</v>
+        <v>33171</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>58265</v>
+        <v>59221</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09161336464177551</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06531279013835241</v>
+        <v>0.06799600021623195</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1194333905155809</v>
+        <v>0.1213934013757314</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>82</v>
@@ -6974,19 +6974,19 @@
         <v>88935</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>70968</v>
+        <v>73097</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108836</v>
+        <v>109420</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.089422994342735</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07135689913258969</v>
+        <v>0.07349783604108923</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1094328609964328</v>
+        <v>0.1100199137836533</v>
       </c>
     </row>
     <row r="25">
@@ -7003,19 +7003,19 @@
         <v>5141</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1807</v>
+        <v>1851</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11547</v>
+        <v>11552</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0101469065315402</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003566245000765674</v>
+        <v>0.003653466944854506</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02278889690059933</v>
+        <v>0.02279839094699298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -7024,19 +7024,19 @@
         <v>9098</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4188</v>
+        <v>4066</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16911</v>
+        <v>17088</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01865046822097571</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008585715193248245</v>
+        <v>0.008333909011487761</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03466419761437704</v>
+        <v>0.03502848646722309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -7045,19 +7045,19 @@
         <v>14240</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8212</v>
+        <v>7928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24752</v>
+        <v>24105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01431806536159911</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008256856545710903</v>
+        <v>0.007971544705932134</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02488796379153307</v>
+        <v>0.02423734409516935</v>
       </c>
     </row>
     <row r="26">
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6239</v>
+        <v>6581</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003678074020819805</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0123121975431778</v>
+        <v>0.01298782027273406</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5973</v>
+        <v>6088</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002470320349439715</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01224335070143007</v>
+        <v>0.01247977225161384</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -7116,19 +7116,19 @@
         <v>3069</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8660</v>
+        <v>7965</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003085647861652664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0008306567867659964</v>
+        <v>0.0008300015708609181</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008707184817181796</v>
+        <v>0.008008360167711009</v>
       </c>
     </row>
     <row r="27">
@@ -7220,19 +7220,19 @@
         <v>1641251</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1575890</v>
+        <v>1585409</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1690882</v>
+        <v>1701754</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4880440902390712</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4686083728594919</v>
+        <v>0.4714388112354159</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5028024170480376</v>
+        <v>0.506035511910489</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1677</v>
@@ -7241,19 +7241,19 @@
         <v>1761826</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1700004</v>
+        <v>1701355</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1820558</v>
+        <v>1822137</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5004979240190233</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4829354252076837</v>
+        <v>0.4833192645025378</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5171822710258683</v>
+        <v>0.5176309854672652</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3242</v>
@@ -7262,19 +7262,19 @@
         <v>3403077</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3320511</v>
+        <v>3313483</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3488450</v>
+        <v>3488977</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4944132504819952</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4824177010441706</v>
+        <v>0.4813966853732643</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.506816643768605</v>
+        <v>0.5068931309806041</v>
       </c>
     </row>
     <row r="29">
@@ -7291,19 +7291,19 @@
         <v>1194302</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1141336</v>
+        <v>1138045</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1256283</v>
+        <v>1253782</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3551389195853289</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3393890081569855</v>
+        <v>0.3384103550620342</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3735695077082307</v>
+        <v>0.3728258726670116</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1151</v>
@@ -7312,19 +7312,19 @@
         <v>1225368</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1166754</v>
+        <v>1167974</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1284372</v>
+        <v>1281068</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3481012551337387</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.331450228114217</v>
+        <v>0.3317969173303675</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3648630385043395</v>
+        <v>0.3639246466579579</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2289</v>
@@ -7333,19 +7333,19 @@
         <v>2419670</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2335631</v>
+        <v>2338041</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2499235</v>
+        <v>2501977</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3515397056067174</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3393302371850277</v>
+        <v>0.339680361307185</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.363099281408351</v>
+        <v>0.3634976566020405</v>
       </c>
     </row>
     <row r="30">
@@ -7362,19 +7362,19 @@
         <v>432342</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>392169</v>
+        <v>392443</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>473821</v>
+        <v>471695</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1285617587050827</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1166159341220458</v>
+        <v>0.1166973635043115</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1408958193856705</v>
+        <v>0.1402637198507746</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>403</v>
@@ -7383,19 +7383,19 @@
         <v>437549</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>398127</v>
+        <v>399784</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>479961</v>
+        <v>480277</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1242985761663842</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1130994504122842</v>
+        <v>0.1135701728925201</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1363469230527239</v>
+        <v>0.136436766290871</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>812</v>
@@ -7404,19 +7404,19 @@
         <v>869892</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>818466</v>
+        <v>810537</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>924531</v>
+        <v>925288</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1263814748492377</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1189101637125311</v>
+        <v>0.1177581316626223</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1343196899830603</v>
+        <v>0.1344296828312202</v>
       </c>
     </row>
     <row r="31">
@@ -7433,19 +7433,19 @@
         <v>78013</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>61619</v>
+        <v>61088</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>96442</v>
+        <v>96128</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02319817089552609</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01832315180041874</v>
+        <v>0.01816508207981106</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0286779958090113</v>
+        <v>0.02858466371297232</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>65</v>
@@ -7454,19 +7454,19 @@
         <v>72569</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>56205</v>
+        <v>56331</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>91344</v>
+        <v>91795</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02061535700021145</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01596673027487007</v>
+        <v>0.01600254176852886</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0259489649681667</v>
+        <v>0.02607698333865069</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>138</v>
@@ -7475,19 +7475,19 @@
         <v>150583</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>128142</v>
+        <v>126198</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>180150</v>
+        <v>179393</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02187726394690508</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01861696554834043</v>
+        <v>0.01833458603587752</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0261730114716306</v>
+        <v>0.02606298971402373</v>
       </c>
     </row>
     <row r="32">
@@ -7504,19 +7504,19 @@
         <v>17006</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10534</v>
+        <v>9783</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27669</v>
+        <v>26453</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005057060574991016</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003132497168542415</v>
+        <v>0.002909129815593975</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008227809174629045</v>
+        <v>0.007866171929228012</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -7525,19 +7525,19 @@
         <v>22835</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15359</v>
+        <v>13338</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36079</v>
+        <v>35754</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006486887680642395</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004363091151247125</v>
+        <v>0.003789108164444237</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01024934550473635</v>
+        <v>0.01015688448118587</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -7546,19 +7546,19 @@
         <v>39841</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>28206</v>
+        <v>28673</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>53630</v>
+        <v>54634</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005788305115144577</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004097922645354871</v>
+        <v>0.004165776558724767</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007791579950247091</v>
+        <v>0.007937446144231938</v>
       </c>
     </row>
     <row r="33">
@@ -7890,19 +7890,19 @@
         <v>184383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>159388</v>
+        <v>159969</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>210100</v>
+        <v>208586</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3696974568177571</v>
+        <v>0.3696974568177572</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3195826769817687</v>
+        <v>0.3207466753754298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.421263077462989</v>
+        <v>0.4182273493513068</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>333</v>
@@ -7911,19 +7911,19 @@
         <v>255099</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>232101</v>
+        <v>232114</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>277893</v>
+        <v>276062</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4103569777387681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3733617344916519</v>
+        <v>0.3733829529891287</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4470239462158363</v>
+        <v>0.4440776424850678</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>489</v>
@@ -7932,19 +7932,19 @@
         <v>439482</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>406360</v>
+        <v>406326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>474821</v>
+        <v>475053</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3922574993443695</v>
+        <v>0.3922574993443696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3626946232728491</v>
+        <v>0.3626645185224802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4237987043664809</v>
+        <v>0.4240064985706664</v>
       </c>
     </row>
     <row r="5">
@@ -7961,19 +7961,19 @@
         <v>163287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141217</v>
+        <v>141039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>187257</v>
+        <v>187839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3274002005913838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2831473902173548</v>
+        <v>0.2827916417826151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3754599380944112</v>
+        <v>0.3766271750843475</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -7982,19 +7982,19 @@
         <v>183275</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>163098</v>
+        <v>164100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203857</v>
+        <v>205512</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.294819848380827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2623625338385002</v>
+        <v>0.263973818931612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3279285637061729</v>
+        <v>0.3305908461110609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>392</v>
@@ -8003,19 +8003,19 @@
         <v>346563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>316220</v>
+        <v>313654</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>379975</v>
+        <v>376560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.30932290615326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2822403053715853</v>
+        <v>0.279950255325936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3391450550154491</v>
+        <v>0.3360965598861619</v>
       </c>
     </row>
     <row r="6">
@@ -8032,19 +8032,19 @@
         <v>80181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63249</v>
+        <v>63202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101843</v>
+        <v>99975</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1607670227453561</v>
+        <v>0.1607670227453562</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1268175332668846</v>
+        <v>0.1267233401530442</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2042007703344135</v>
+        <v>0.200455963795353</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -8053,19 +8053,19 @@
         <v>97796</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>83021</v>
+        <v>83561</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113785</v>
+        <v>113897</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1573156861923669</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1335482981629754</v>
+        <v>0.1344180757460044</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1830357071502516</v>
+        <v>0.1832172622050697</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>225</v>
@@ -8074,19 +8074,19 @@
         <v>177977</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>158011</v>
+        <v>155789</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>203027</v>
+        <v>201191</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1588520395471932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1410321184839483</v>
+        <v>0.1390486951226712</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1812108584256067</v>
+        <v>0.1795723583230422</v>
       </c>
     </row>
     <row r="7">
@@ -8103,19 +8103,19 @@
         <v>56733</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43774</v>
+        <v>44895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70230</v>
+        <v>72740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1137537988371187</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08777024585098789</v>
+        <v>0.09001622331228157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1408143553306288</v>
+        <v>0.1458473118169809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -8124,19 +8124,19 @@
         <v>58393</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46789</v>
+        <v>48010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71068</v>
+        <v>73892</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09393266052120319</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07526527926528592</v>
+        <v>0.07722952745291836</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1143214999936299</v>
+        <v>0.118863906386664</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>154</v>
@@ -8145,19 +8145,19 @@
         <v>115127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99635</v>
+        <v>96775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137402</v>
+        <v>133383</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1027559879135314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08892883619372252</v>
+        <v>0.08637598671226668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1226372773789832</v>
+        <v>0.1190499303886557</v>
       </c>
     </row>
     <row r="8">
@@ -8174,19 +8174,19 @@
         <v>14155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8206</v>
+        <v>8406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22507</v>
+        <v>23975</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02838152100838416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01645447993898402</v>
+        <v>0.01685430425899551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04512762264123323</v>
+        <v>0.04807142989749843</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -8195,19 +8195,19 @@
         <v>27088</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19419</v>
+        <v>18703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39979</v>
+        <v>41547</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.04357482716683476</v>
+        <v>0.04357482716683475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03123762589825284</v>
+        <v>0.03008641470933566</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06431027289011526</v>
+        <v>0.06683357800789828</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -8216,19 +8216,19 @@
         <v>41243</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31021</v>
+        <v>31122</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56324</v>
+        <v>56435</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0368115670416458</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02768725489717645</v>
+        <v>0.0277778700290107</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05027153305176531</v>
+        <v>0.0503709469310455</v>
       </c>
     </row>
     <row r="9">
@@ -8320,19 +8320,19 @@
         <v>410800</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>373786</v>
+        <v>378300</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>444508</v>
+        <v>446951</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4292323366348927</v>
+        <v>0.4292323366348928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.390557416606648</v>
+        <v>0.3952733675878982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4644523748105512</v>
+        <v>0.4670053142656006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>681</v>
@@ -8341,19 +8341,19 @@
         <v>488195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>459180</v>
+        <v>459370</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>517041</v>
+        <v>520559</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4393103637537179</v>
+        <v>0.4393103637537178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4132006051525249</v>
+        <v>0.4133715326175793</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4652679155033819</v>
+        <v>0.4684337559689811</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1041</v>
@@ -8362,19 +8362,19 @@
         <v>898995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>859183</v>
+        <v>852626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>951227</v>
+        <v>945766</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4346470683414679</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4153985727835883</v>
+        <v>0.4122284463697948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4598999031957105</v>
+        <v>0.4572597482233083</v>
       </c>
     </row>
     <row r="11">
@@ -8391,19 +8391,19 @@
         <v>385412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>353128</v>
+        <v>352873</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>424507</v>
+        <v>420402</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4027045144317231</v>
+        <v>0.4027045144317232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3689727892249298</v>
+        <v>0.3687062363113718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4435537387828246</v>
+        <v>0.4392644448274306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>609</v>
@@ -8412,19 +8412,19 @@
         <v>427655</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>398479</v>
+        <v>398132</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456544</v>
+        <v>455483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.384832554161369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3585783138316732</v>
+        <v>0.358265300572313</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4108283974146494</v>
+        <v>0.4098740485602967</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>980</v>
@@ -8433,19 +8433,19 @@
         <v>813067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>773124</v>
+        <v>768664</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>854943</v>
+        <v>856737</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3931022511322155</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3737907901444337</v>
+        <v>0.3716342488171487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4133485214080597</v>
+        <v>0.414215784545782</v>
       </c>
     </row>
     <row r="12">
@@ -8462,19 +8462,19 @@
         <v>115296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96556</v>
+        <v>95529</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>136707</v>
+        <v>136442</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1204695301803236</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1008885224403449</v>
+        <v>0.09981536118455846</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1428404361161731</v>
+        <v>0.1425643506318761</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>232</v>
@@ -8483,19 +8483,19 @@
         <v>146867</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>129534</v>
+        <v>127895</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>167920</v>
+        <v>165042</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1321611223448701</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1165633213445193</v>
+        <v>0.1150888021018361</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1511057998934514</v>
+        <v>0.1485159793705456</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>355</v>
@@ -8504,19 +8504,19 @@
         <v>262164</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>234694</v>
+        <v>232806</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>293317</v>
+        <v>290986</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1267511996030484</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1134699723073387</v>
+        <v>0.1125574118872572</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1418130545063001</v>
+        <v>0.1406863066338387</v>
       </c>
     </row>
     <row r="13">
@@ -8533,19 +8533,19 @@
         <v>31866</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22442</v>
+        <v>22550</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44442</v>
+        <v>44112</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03329536030498881</v>
+        <v>0.03329536030498882</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02344940274337465</v>
+        <v>0.02356143179721191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04643646195249466</v>
+        <v>0.04609081804959051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -8554,19 +8554,19 @@
         <v>40588</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31850</v>
+        <v>31134</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50929</v>
+        <v>50704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03652376038403865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02866108136763303</v>
+        <v>0.02801651784461672</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04582971175011289</v>
+        <v>0.04562694106548264</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -8575,19 +8575,19 @@
         <v>72454</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59674</v>
+        <v>58766</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89411</v>
+        <v>87330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0350299180774012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0288511938522812</v>
+        <v>0.02841202189473338</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04322855784743222</v>
+        <v>0.0422224082081417</v>
       </c>
     </row>
     <row r="14">
@@ -8604,19 +8604,19 @@
         <v>13684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7900</v>
+        <v>7480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22372</v>
+        <v>23416</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01429825844807169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008254507673757815</v>
+        <v>0.007815858294347867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02337557780144225</v>
+        <v>0.02446656517256038</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -8625,19 +8625,19 @@
         <v>7970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4025</v>
+        <v>3960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13795</v>
+        <v>14347</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.007172199356004285</v>
+        <v>0.007172199356004286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003622048300344959</v>
+        <v>0.003563092018002998</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.012413454041777</v>
+        <v>0.01291010619981763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -8646,19 +8646,19 @@
         <v>21655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14452</v>
+        <v>14601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32160</v>
+        <v>32746</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.010469562845867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006987175912913324</v>
+        <v>0.007059195908093281</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01554863499405925</v>
+        <v>0.01583229075538988</v>
       </c>
     </row>
     <row r="15">
@@ -8750,19 +8750,19 @@
         <v>606359</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>574606</v>
+        <v>570668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>639367</v>
+        <v>638804</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.579427517451074</v>
+        <v>0.5794275174510741</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5490851921788682</v>
+        <v>0.5453224508881521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6109701418849667</v>
+        <v>0.6104318253400435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>865</v>
@@ -8771,19 +8771,19 @@
         <v>621012</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>595209</v>
+        <v>591456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>648248</v>
+        <v>648356</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5963684995827566</v>
+        <v>0.5963684995827565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5715897694423516</v>
+        <v>0.567986143760788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6225236259988001</v>
+        <v>0.6226275549612421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1426</v>
@@ -8792,19 +8792,19 @@
         <v>1227370</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1179511</v>
+        <v>1182053</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1274936</v>
+        <v>1266646</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5878770844269049</v>
+        <v>0.587877084426905</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5649536969874169</v>
+        <v>0.5661714151142184</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6106595705825959</v>
+        <v>0.6066892837430551</v>
       </c>
     </row>
     <row r="17">
@@ -8821,19 +8821,19 @@
         <v>353985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>322154</v>
+        <v>325622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>387476</v>
+        <v>387953</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3382629824829433</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.307845655826888</v>
+        <v>0.3111597527565399</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3702667390031529</v>
+        <v>0.3707220740873474</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>503</v>
@@ -8842,19 +8842,19 @@
         <v>332253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>304750</v>
+        <v>307665</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>356750</v>
+        <v>358834</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.31906816001218</v>
+        <v>0.3190681600121799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2926567300343906</v>
+        <v>0.295456058642993</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3425934866930286</v>
+        <v>0.3445944686829466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>878</v>
@@ -8863,19 +8863,19 @@
         <v>686238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>641965</v>
+        <v>649906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>732955</v>
+        <v>730917</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3286892790934225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3074839593478014</v>
+        <v>0.3112874300932941</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3510653188347171</v>
+        <v>0.3500891759372324</v>
       </c>
     </row>
     <row r="18">
@@ -8892,19 +8892,19 @@
         <v>71699</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57488</v>
+        <v>57069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>91455</v>
+        <v>90662</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0685142778092368</v>
+        <v>0.06851427780923681</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05493432018178425</v>
+        <v>0.05453382882052397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08739286256154687</v>
+        <v>0.08663558641252192</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>93</v>
@@ -8913,19 +8913,19 @@
         <v>60384</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49009</v>
+        <v>47379</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75965</v>
+        <v>75047</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.05798811368077166</v>
+        <v>0.05798811368077165</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04706421028323513</v>
+        <v>0.04549917762607542</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07295061458165526</v>
+        <v>0.07206932176824284</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>167</v>
@@ -8934,19 +8934,19 @@
         <v>132083</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>112270</v>
+        <v>111689</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>156544</v>
+        <v>155216</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06326419678614671</v>
+        <v>0.06326419678614673</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05377425508533908</v>
+        <v>0.05349597816192043</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07498030925126668</v>
+        <v>0.07434411697002463</v>
       </c>
     </row>
     <row r="19">
@@ -8963,19 +8963,19 @@
         <v>10086</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5800</v>
+        <v>5840</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17398</v>
+        <v>15942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009638093634926638</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005542277386017241</v>
+        <v>0.005580459486084663</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01662560667185436</v>
+        <v>0.01523411733806566</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -8984,19 +8984,19 @@
         <v>19383</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13502</v>
+        <v>13477</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27225</v>
+        <v>27438</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01861357707462604</v>
+        <v>0.01861357707462603</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01296598720395521</v>
+        <v>0.01294191820690922</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02614453094744612</v>
+        <v>0.02634893730116297</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -9005,19 +9005,19 @@
         <v>29469</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21425</v>
+        <v>22026</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39554</v>
+        <v>39538</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01411474958525489</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01026190445997259</v>
+        <v>0.01054969739832221</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01894511045183573</v>
+        <v>0.01893763093048566</v>
       </c>
     </row>
     <row r="20">
@@ -9034,19 +9034,19 @@
         <v>4350</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1182</v>
+        <v>1030</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11133</v>
+        <v>10633</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004157128621819156</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001129952636133474</v>
+        <v>0.000984100256686556</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01063827283931591</v>
+        <v>0.01016036039318396</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -9055,19 +9055,19 @@
         <v>8291</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4585</v>
+        <v>4376</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14501</v>
+        <v>14157</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007961649649665723</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004402619520834783</v>
+        <v>0.004202439482636256</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01392592707040475</v>
+        <v>0.01359487484962677</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -9076,19 +9076,19 @@
         <v>12641</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6903</v>
+        <v>7477</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20234</v>
+        <v>20672</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.006054690108270818</v>
+        <v>0.006054690108270819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003306157098138242</v>
+        <v>0.003581260107237807</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009691332952363092</v>
+        <v>0.009901347171128129</v>
       </c>
     </row>
     <row r="21">
@@ -9180,19 +9180,19 @@
         <v>648757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>617054</v>
+        <v>615955</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>680483</v>
+        <v>680880</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6660873728193967</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6335371109808191</v>
+        <v>0.6324087872130549</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6986609795063046</v>
+        <v>0.6990680994300249</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>829</v>
@@ -9201,19 +9201,19 @@
         <v>609103</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>581302</v>
+        <v>584490</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>633733</v>
+        <v>632597</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.673478291687699</v>
+        <v>0.6734782916876989</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6427397071482834</v>
+        <v>0.6462644285986956</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7007122768388621</v>
+        <v>0.6994562926902507</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1420</v>
@@ -9222,19 +9222,19 @@
         <v>1257860</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1214477</v>
+        <v>1217938</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1295909</v>
+        <v>1298149</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.669645966637073</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6465503306265421</v>
+        <v>0.6483931256166429</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6899023472461531</v>
+        <v>0.691094659533206</v>
       </c>
     </row>
     <row r="23">
@@ -9251,19 +9251,19 @@
         <v>251484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224053</v>
+        <v>224530</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>282492</v>
+        <v>282538</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2582024040336814</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2300379623867958</v>
+        <v>0.2305274948786391</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2900377756600573</v>
+        <v>0.2900853276108016</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>407</v>
@@ -9272,19 +9272,19 @@
         <v>236746</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>214253</v>
+        <v>216009</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>260637</v>
+        <v>260062</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2617680954454941</v>
+        <v>0.261768095445494</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.236896946086961</v>
+        <v>0.2388393589777282</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2881835628256178</v>
+        <v>0.2875479286084257</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>684</v>
@@ -9293,19 +9293,19 @@
         <v>488231</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>453518</v>
+        <v>450174</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>527880</v>
+        <v>523120</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2599192199857868</v>
+        <v>0.2599192199857867</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2414391607069975</v>
+        <v>0.2396589924699111</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.281027329072424</v>
+        <v>0.2784930185712768</v>
       </c>
     </row>
     <row r="24">
@@ -9322,19 +9322,19 @@
         <v>45560</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33757</v>
+        <v>32951</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>63699</v>
+        <v>64900</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.046777201255235</v>
+        <v>0.04677720125523501</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03465865521435322</v>
+        <v>0.03383149096071182</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0654010985366926</v>
+        <v>0.06663348978690511</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -9343,19 +9343,19 @@
         <v>39536</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29632</v>
+        <v>29871</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54323</v>
+        <v>53784</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04371456104933006</v>
+        <v>0.04371456104933007</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03276341369122474</v>
+        <v>0.03302777747736689</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06006390249563125</v>
+        <v>0.05946820068875043</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>98</v>
@@ -9364,19 +9364,19 @@
         <v>85096</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68502</v>
+        <v>67883</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>106765</v>
+        <v>105578</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0453025953643164</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03646856278842617</v>
+        <v>0.03613882043879758</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05683824553538429</v>
+        <v>0.05620657243892019</v>
       </c>
     </row>
     <row r="25">
@@ -9393,19 +9393,19 @@
         <v>23560</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15792</v>
+        <v>15761</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37302</v>
+        <v>36471</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02418985874418844</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01621414411695052</v>
+        <v>0.01618198482796242</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03829872074777839</v>
+        <v>0.03744482039601299</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -9414,19 +9414,19 @@
         <v>16589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10334</v>
+        <v>10084</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27770</v>
+        <v>28309</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01834204356466589</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01142620885466099</v>
+        <v>0.01115011796020864</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03070466569283825</v>
+        <v>0.03130074112994244</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -9435,19 +9435,19 @@
         <v>40149</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29751</v>
+        <v>29068</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56584</v>
+        <v>56374</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02137424145551667</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01583874995577428</v>
+        <v>0.01547503869994389</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03012350163161136</v>
+        <v>0.03001154132510108</v>
       </c>
     </row>
     <row r="26">
@@ -9464,19 +9464,19 @@
         <v>4620</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11941</v>
+        <v>11614</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004743163147498381</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001213185621958701</v>
+        <v>0.001199005140300492</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01225983165722332</v>
+        <v>0.01192436846875841</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -9485,19 +9485,19 @@
         <v>2439</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6944</v>
+        <v>6384</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.002697008252811094</v>
+        <v>0.002697008252811093</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0007418254343157304</v>
+        <v>0.0007299439960197269</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007677944634747574</v>
+        <v>0.007058448274817265</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -9506,19 +9506,19 @@
         <v>7059</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2895</v>
+        <v>2867</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14402</v>
+        <v>14974</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003757976557307227</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001541081070105594</v>
+        <v>0.001526190603903464</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007667017482671082</v>
+        <v>0.007971897723176738</v>
       </c>
     </row>
     <row r="27">
@@ -9610,19 +9610,19 @@
         <v>1850299</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1789010</v>
+        <v>1786311</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1910900</v>
+        <v>1913544</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5322673310611343</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5146366124951468</v>
+        <v>0.5138602730839033</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5497002321842341</v>
+        <v>0.5504609289318027</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2708</v>
@@ -9631,19 +9631,19 @@
         <v>1973408</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1921673</v>
+        <v>1917153</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2029842</v>
+        <v>2025170</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5364471826676136</v>
+        <v>0.5364471826676138</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5223836121634449</v>
+        <v>0.521154744477345</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5517878459208336</v>
+        <v>0.5505178539043263</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4376</v>
@@ -9652,19 +9652,19 @@
         <v>3823707</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3738606</v>
+        <v>3738965</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3901123</v>
+        <v>3903794</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5344163788394314</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5225222626144711</v>
+        <v>0.5225724726848856</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5452363465918224</v>
+        <v>0.5456096513167666</v>
       </c>
     </row>
     <row r="29">
@@ -9681,19 +9681,19 @@
         <v>1154168</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1098947</v>
+        <v>1095881</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1213306</v>
+        <v>1211645</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3320146044679211</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3161293826632542</v>
+        <v>0.3152474106302002</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3490264082057431</v>
+        <v>0.3485486765891423</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1767</v>
@@ -9702,19 +9702,19 @@
         <v>1179930</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1127548</v>
+        <v>1129587</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1223693</v>
+        <v>1225972</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3207496048883685</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.30651016381514</v>
+        <v>0.3070646795188343</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3326462044961863</v>
+        <v>0.3332655867414915</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2934</v>
@@ -9723,19 +9723,19 @@
         <v>2334098</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2264636</v>
+        <v>2264470</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2409980</v>
+        <v>2414895</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3262227667190816</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3165144194486799</v>
+        <v>0.3164913201325407</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.336828327795861</v>
+        <v>0.3375153098792454</v>
       </c>
     </row>
     <row r="30">
@@ -9752,19 +9752,19 @@
         <v>312736</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>277418</v>
+        <v>278427</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>350304</v>
+        <v>354708</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08996341486603086</v>
+        <v>0.08996341486603085</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07980351691024534</v>
+        <v>0.08009382526535047</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1007704756913214</v>
+        <v>0.1020372836461036</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>528</v>
@@ -9773,19 +9773,19 @@
         <v>344583</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>313842</v>
+        <v>311191</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>374810</v>
+        <v>373547</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09367083586358578</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08531427909236934</v>
+        <v>0.08459346683276878</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1018874390238503</v>
+        <v>0.1015443615281164</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>845</v>
@@ -9794,19 +9794,19 @@
         <v>657319</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>611782</v>
+        <v>610773</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>705536</v>
+        <v>707781</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09186956503788302</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08550506814817078</v>
+        <v>0.08536409026642254</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09860848339474317</v>
+        <v>0.09892223634383494</v>
       </c>
     </row>
     <row r="31">
@@ -9823,19 +9823,19 @@
         <v>122246</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>102938</v>
+        <v>102822</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>145269</v>
+        <v>144974</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03516586623808896</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02961184843499471</v>
+        <v>0.02957844984599901</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04178901493016442</v>
+        <v>0.04170410625111319</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>213</v>
@@ -9844,19 +9844,19 @@
         <v>134953</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>117342</v>
+        <v>118705</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>155584</v>
+        <v>156854</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03668531982283301</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03189809198538827</v>
+        <v>0.0322684638743793</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04229365925275656</v>
+        <v>0.04263894957327659</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>356</v>
@@ -9865,19 +9865,19 @@
         <v>257199</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>229878</v>
+        <v>229897</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>289102</v>
+        <v>283731</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03594708496495903</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03212865178161995</v>
+        <v>0.03213136541691775</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04040608653888268</v>
+        <v>0.03965531908074628</v>
       </c>
     </row>
     <row r="32">
@@ -9894,19 +9894,19 @@
         <v>36809</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26009</v>
+        <v>26329</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50353</v>
+        <v>51054</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01058878336682489</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007481837890854006</v>
+        <v>0.007573861521216653</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01448479058364952</v>
+        <v>0.0146865308077526</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -9915,19 +9915,19 @@
         <v>45789</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35590</v>
+        <v>35282</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>60321</v>
+        <v>61282</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01244705675759903</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009674743227223979</v>
+        <v>0.009591074408969977</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01639750831107418</v>
+        <v>0.01665875264055494</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>103</v>
@@ -9936,19 +9936,19 @@
         <v>82598</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>66616</v>
+        <v>66824</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>103077</v>
+        <v>102731</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01154420443864503</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009310554471289067</v>
+        <v>0.009339575687586617</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01440640987968786</v>
+        <v>0.01435804479985541</v>
       </c>
     </row>
     <row r="33">
